--- a/Data/Input/masterlist.xlsx
+++ b/Data/Input/masterlist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Connext\CollectJobApplicants\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F52688-9D31-418F-8621-3657823D8D7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF3494E-64B1-4EF3-9B52-D216ABCF62C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{F001A22A-F94D-484A-8514-28C84F23A5A5}"/>
+    <workbookView xWindow="0" yWindow="3396" windowWidth="20844" windowHeight="8964" xr2:uid="{F001A22A-F94D-484A-8514-28C84F23A5A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Master List" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Date Downloaded</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Interested</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t>RPA - RESUME PATH</t>
   </si>
 </sst>
 </file>
@@ -125,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -148,16 +160,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -474,22 +500,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD35446-EBB8-41F3-A607-F5BE70AA497B}">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:AB1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="5" max="5" width="18.5546875" customWidth="1"/>
     <col min="7" max="7" width="21.44140625" customWidth="1"/>
     <col min="9" max="9" width="41.6640625" customWidth="1"/>
     <col min="10" max="10" width="19.44140625" customWidth="1"/>
+    <col min="11" max="11" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -556,8 +585,25 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="W1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{9D17F339-FA56-429E-9EAE-5480E2552D2F}">
+      <formula1>$Z$1:$AB$1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Data/Input/masterlist.xlsx
+++ b/Data/Input/masterlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF3494E-64B1-4EF3-9B52-D216ABCF62C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A92B27A-5261-4355-92BB-C3DD5D6057B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3396" windowWidth="20844" windowHeight="8964" xr2:uid="{F001A22A-F94D-484A-8514-28C84F23A5A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F001A22A-F94D-484A-8514-28C84F23A5A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Master List" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Date Downloaded</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>RPA - RESUME PATH</t>
+  </si>
+  <si>
+    <t>Date Applied</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
   <dimension ref="A1:AB1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -588,6 +591,9 @@
       <c r="W1" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="X1" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="Z1" t="s">
         <v>23</v>
       </c>
